--- a/keyboards/0mao/08gamerst/PCB/BOM_E08gamer_st_Schematic1_3_2025-10-28.xlsx
+++ b/keyboards/0mao/08gamerst/PCB/BOM_E08gamer_st_Schematic1_3_2025-10-28.xlsx
@@ -1,17 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
+  <bookViews>
+    <workbookView windowHeight="17680"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="BOM_E08gamer_st_Schematic1_3_20" state="visible" r:id="rId4"/>
+    <sheet name="BOM_E08gamer_st_Schematic1_3_20" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="96">
   <si>
     <t>No.</t>
   </si>
@@ -136,24 +152,6 @@
     <t>C1555</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>WAFER-SH1.0-4PWB</t>
-  </si>
-  <si>
-    <t>CN1</t>
-  </si>
-  <si>
-    <t>CONN-SMD_4P-P1.00_WAFER-SH1.0-4PWB</t>
-  </si>
-  <si>
-    <t>XUNPU(讯普)</t>
-  </si>
-  <si>
-    <t>C3029343</t>
-  </si>
-  <si>
     <t>7</t>
   </si>
   <si>
@@ -235,6 +233,9 @@
     <t>C9900003682</t>
   </si>
   <si>
+    <t>https://item.taobao.com/item.htm?id=676874582870&amp;mi_id=0000pZF7q7YYYYgxSaAk3BBUnoou3QHfjIi2zbKNCd2Og9Y&amp;spm=tbpc.boughtlist.suborder_itemtitle.1.41692e8d5Cf1Ld</t>
+  </si>
+  <si>
     <t>12</t>
   </si>
   <si>
@@ -253,6 +254,12 @@
     <t>C279569</t>
   </si>
   <si>
+    <t>https://item.taobao.com/item.htm?id=678617424206&amp;mi_id=0000P1bw-eJxaV7AkBfSEPJhqo3HZA5vmG4dt3lEl9LXWNo&amp;spm=tbpc.boughtlist.suborder_itemtitle.1.41692e8d5Cf1Ld</t>
+  </si>
+  <si>
+    <t>使用APM32F103CBT6替换</t>
+  </si>
+  <si>
     <t>13</t>
   </si>
   <si>
@@ -284,6 +291,9 @@
   </si>
   <si>
     <t>C9900036245</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?id=823079527886&amp;mi_id=0000vfmBUaTp81EsxDma7XUZCegMz00on88-ZpUnUy39Fso&amp;pvid=f3c0ba55-b8ec-42fd-9805-a4388c58bc11&amp;scm=1007.56608.446695.0&amp;skuId=5707955650313&amp;spm=tbpc.boughtlist.repurchaseitem.d5.41692e8d5Cf1Ld&amp;xxc=home_recommend</t>
   </si>
   <si>
     <t>15</t>
@@ -310,25 +320,368 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
-    <font>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -336,27 +689,361 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16249650" y="2489200"/>
+          <a:ext cx="22802850" cy="11172825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -675,22 +1362,25 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="10" width="20" customWidth="1"/>
+    <col min="11" max="11" width="32.6363636363636" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -722,7 +1412,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -754,7 +1444,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -786,7 +1476,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -818,7 +1508,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -850,7 +1540,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -882,334 +1572,319 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
         <v>41</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" t="s">
-        <v>45</v>
-      </c>
-      <c r="I7" t="s">
-        <v>46</v>
-      </c>
-      <c r="J7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>47</v>
       </c>
       <c r="B8">
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
         <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H8" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="I8" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="J8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F9" t="s">
         <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H9" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="I9" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="J9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" t="s">
         <v>56</v>
       </c>
-      <c r="F10" t="s">
-        <v>60</v>
-      </c>
-      <c r="G10" t="s">
-        <v>62</v>
-      </c>
       <c r="H10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" t="s">
         <v>57</v>
-      </c>
-      <c r="I10" t="s">
-        <v>63</v>
       </c>
       <c r="J10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B11">
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D11" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F11" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G11" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H11" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="I11" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="J11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B12">
         <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D12" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E12" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F12" t="s">
         <v>14</v>
       </c>
       <c r="G12" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="H12" t="s">
         <v>14</v>
       </c>
       <c r="I12" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="J12" t="s">
         <v>17</v>
       </c>
+      <c r="K12" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D13" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E13" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F13" t="s">
         <v>14</v>
       </c>
       <c r="G13" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H13" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="I13" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="J13" t="s">
         <v>17</v>
       </c>
+      <c r="K13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L13" t="s">
+        <v>76</v>
+      </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D14" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E14" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
       </c>
       <c r="G14" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14" t="s">
         <v>81</v>
       </c>
-      <c r="H14" t="s">
-        <v>84</v>
-      </c>
       <c r="I14" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D15" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E15" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F15" t="s">
         <v>14</v>
       </c>
       <c r="G15" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H15" t="s">
         <v>14</v>
       </c>
       <c r="I15" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J15" t="s">
         <v>17</v>
       </c>
+      <c r="K15" t="s">
+        <v>88</v>
+      </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" t="s">
         <v>92</v>
       </c>
-      <c r="D16" t="s">
+      <c r="F16" t="s">
+        <v>90</v>
+      </c>
+      <c r="G16" t="s">
         <v>93</v>
       </c>
-      <c r="E16" t="s">
+      <c r="H16" t="s">
         <v>94</v>
       </c>
-      <c r="F16" t="s">
-        <v>92</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="I16" t="s">
         <v>95</v>
-      </c>
-      <c r="H16" t="s">
-        <v>96</v>
-      </c>
-      <c r="I16" t="s">
-        <v>97</v>
       </c>
       <c r="J16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K13" r:id="rId2" display="https://item.taobao.com/item.htm?id=678617424206&amp;mi_id=0000P1bw-eJxaV7AkBfSEPJhqo3HZA5vmG4dt3lEl9LXWNo&amp;spm=tbpc.boughtlist.suborder_itemtitle.1.41692e8d5Cf1Ld"/>
+  </hyperlinks>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>